--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="124">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -81,46 +81,163 @@
     <t xml:space="preserve">test@test.com</t>
   </si>
   <si>
+    <t xml:space="preserve">test_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test$1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/postuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12@#$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalidNumber@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalidNumbertest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserRegistration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalidUsername@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userRegistration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testtest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Perales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andres@hexaware.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andres_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosniñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validName@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosneiñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalidName@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name5@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fer12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo Jacobo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name41@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrarsignificacontarhi Mejormaneradele </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Rosales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedro21@hexaware.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivonnec@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne03-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andreac@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andreac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexaware$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andresr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andres_99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test!ng03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dania Faz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dania@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daniaf98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dani@98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayte Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayte@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayte98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M@yterios123</t>
+  </si>
+  <si>
     <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/api/postuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"12@#$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalidNumber@test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalidNumbertest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserRegistration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalidUsername@test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userRegistration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres perales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andres@hexaware.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andres_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDHKDS</t>
   </si>
   <si>
     <t xml:space="preserve">/api/user</t>
@@ -298,7 +415,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -349,11 +466,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
@@ -401,7 +513,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +524,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF333399"/>
         <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -502,91 +620,91 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -617,7 +735,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -789,16 +907,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.09"/>
   </cols>
@@ -837,13 +955,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>201</v>
@@ -851,22 +969,22 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>400</v>
@@ -880,16 +998,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>409</v>
@@ -897,22 +1015,22 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>409</v>
@@ -927,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>400</v>
@@ -935,22 +1053,22 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>400</v>
@@ -958,24 +1076,277 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>48045</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>400</v>
       </c>
     </row>
@@ -1001,7 +1372,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1022,140 +1393,140 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="A2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10" t="n">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="10" t="n">
+      <c r="A4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="10" t="n">
+      <c r="A5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="n">
+      <c r="A6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="10" t="n">
+      <c r="A7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="10" t="n">
+      <c r="A8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8" t="n">
+      <c r="A9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="10" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8" t="n">
+      <c r="A10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="10" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8" t="n">
+      <c r="A11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1181,7 +1552,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1189,7 +1560,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1202,84 +1573,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="10" t="n">
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="10" t="n">
+      <c r="A4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="11" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10" t="n">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="13" t="n">
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="n">
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="11" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1305,7 +1676,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -1330,102 +1701,102 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="16" t="n">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="16" t="n">
+      <c r="A3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="17" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="16" t="n">
+      <c r="A4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="16" t="n">
+      <c r="A5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="16" t="n">
+      <c r="A6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="16" t="n">
+      <c r="A7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="17" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1451,14 +1822,14 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1472,33 +1843,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>500</v>
@@ -1506,50 +1877,50 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>55</v>
+      <c r="A4" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>56</v>
+      <c r="A5" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>500</v>
@@ -1577,7 +1948,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1595,59 +1966,59 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="11" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="11" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="11" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1656,50 +2027,50 @@
         <v>123131</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="11" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="11" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="23" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1725,20 +2096,20 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>64</v>
+      <c r="A1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1751,160 +2122,160 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>66</v>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
+      <c r="C3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>66</v>
+      <c r="C4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>66</v>
+      <c r="C5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>66</v>
+      <c r="C6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>66</v>
+      <c r="C7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>66</v>
+      <c r="C8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>66</v>
+      <c r="C9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>500</v>
@@ -1928,11 +2299,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -1940,20 +2311,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>70</v>
+      <c r="B1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1967,25 +2338,25 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="24" t="n">
+        <v>111</v>
+      </c>
+      <c r="C2" s="25" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="24" t="n">
+      <c r="D2" s="25" t="n">
         <v>44103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>200</v>
@@ -1993,51 +2364,51 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="24" t="n">
+        <v>111</v>
+      </c>
+      <c r="C3" s="25" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="25" t="n">
         <v>44103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>75</v>
+      <c r="A4" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="24" t="n">
+        <v>111</v>
+      </c>
+      <c r="C4" s="25" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="24" t="n">
+      <c r="D4" s="25" t="n">
         <v>44103</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>500</v>
@@ -2045,51 +2416,51 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="24" t="n">
+        <v>111</v>
+      </c>
+      <c r="C5" s="25" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="25" t="n">
         <v>44103</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="24" t="n">
+      <c r="A6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="25" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="25" t="n">
         <v>44103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H6" s="26" t="n">
         <v>500</v>
@@ -2097,25 +2468,25 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C7" s="27" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D7" s="25" t="n">
         <v>44103</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>200</v>
@@ -2123,25 +2494,25 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="25" t="n">
         <v>44103</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H8" s="26" t="n">
         <v>200</v>
@@ -2149,25 +2520,25 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="24" t="n">
+        <v>111</v>
+      </c>
+      <c r="C9" s="25" t="n">
         <v>43737</v>
       </c>
       <c r="D9" s="28" t="n">
         <v>44103</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H9" s="29" t="n">
         <v>200</v>
@@ -2175,10 +2546,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>43737</v>
@@ -2187,13 +2558,13 @@
         <v>44103</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>200</v>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -168,13 +168,16 @@
     <t xml:space="preserve">/api/nameupd</t>
   </si>
   <si>
-    <t xml:space="preserve">Anahi Contreras</t>
+    <t xml:space="preserve">Andrea Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hugoalejandrolopezmateoignacioavestruzySiemprequebuscoestenombreesdemasdeSiemprequebuscoestenombreesdemasdeMuchoscaracteresporesocreoquEnodebefuncionaresteesminombRefalsosuperlargoyaunpiensoquetIeneposibilidaddeseraceptadOporlaaplicacionapesardesertanLargoycasillegaralostrescientoscaracteres</t>
   </si>
   <si>
     <t xml:space="preserve">anahi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hugoalejandrolopezmateoignacioavestruzySiemprequebuscoestenombreesdemasdeSiemprequebuscoestenombreesdemasdeMuchoscaracteresporesocreoquEnodebefuncionaresteesminombRefalsosuperlargoyaunpiensoquetIeneposibilidaddeseraceptadOporlaaplicacionapesardesertanLargoycasillegaralostrescientoscaracteres</t>
   </si>
   <si>
     <t xml:space="preserve">Anahi 123</t>
@@ -298,7 +301,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -347,11 +350,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -469,7 +467,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -506,67 +504,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,19 +568,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -617,7 +611,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -795,7 +789,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
@@ -1001,7 +995,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1028,10 +1022,10 @@
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="9" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1040,10 +1034,10 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="9" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1054,10 +1048,10 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1068,10 +1062,10 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1082,10 +1076,10 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="9" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1096,10 +1090,10 @@
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="9" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1110,10 +1104,10 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="9" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1124,7 +1118,7 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="8" t="n">
@@ -1138,7 +1132,7 @@
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="8" t="n">
@@ -1152,7 +1146,7 @@
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="8" t="n">
@@ -1181,7 +1175,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1202,84 +1196,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="9" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="9" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="9" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1301,11 +1295,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -1330,102 +1324,102 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="15" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="15" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="15" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="15" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="15" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="15" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1451,14 +1445,14 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1472,33 +1466,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>53</v>
+      <c r="D2" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>500</v>
@@ -1506,50 +1500,50 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>55</v>
+      <c r="A4" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>53</v>
+      <c r="D4" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>56</v>
+      <c r="A5" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>53</v>
+      <c r="D5" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>500</v>
@@ -1577,7 +1571,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1595,59 +1589,59 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="9" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="9" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1660,46 +1654,46 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="9" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="12" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="9" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="21" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1725,20 +1719,20 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>64</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1751,160 +1745,160 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>500</v>
@@ -1928,11 +1922,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -1940,20 +1934,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>70</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1967,25 +1961,25 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="24" t="n">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="24" t="n">
+      <c r="D2" s="23" t="n">
         <v>44103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>200</v>
@@ -1993,51 +1987,51 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="24" t="n">
+        <v>73</v>
+      </c>
+      <c r="C3" s="23" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="23" t="n">
         <v>44103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D4" s="23" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="24" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D4" s="24" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>500</v>
@@ -2045,77 +2039,77 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="24" t="n">
+        <v>73</v>
+      </c>
+      <c r="C5" s="23" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="23" t="n">
         <v>44103</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="B6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="23" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="23" t="n">
         <v>44103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="26" t="n">
+        <v>75</v>
+      </c>
+      <c r="H6" s="25" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="27" t="n">
+        <v>81</v>
+      </c>
+      <c r="C7" s="26" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D7" s="23" t="n">
         <v>44103</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>200</v>
@@ -2123,77 +2117,77 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="28" t="n">
+        <v>83</v>
+      </c>
+      <c r="C8" s="27" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="23" t="n">
         <v>44103</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="26" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" s="25" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="24" t="n">
+        <v>73</v>
+      </c>
+      <c r="C9" s="23" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="27" t="n">
         <v>44103</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="C10" s="29" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D10" s="29" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="29" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="30" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D10" s="30" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>200</v>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="123">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -105,9 +105,6 @@
     <t xml:space="preserve">invalidUsername@test.com</t>
   </si>
   <si>
-    <t xml:space="preserve">userRegistration</t>
-  </si>
-  <si>
     <t xml:space="preserve">tester-2</t>
   </si>
   <si>
@@ -132,7 +129,7 @@
     <t xml:space="preserve">tester1</t>
   </si>
   <si>
-    <t xml:space="preserve">N arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosniñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosni</t>
+    <t xml:space="preserve">N arrar sig nificaco ntar hi storias la me jor mane radeenseñ aralosniñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosni</t>
   </si>
   <si>
     <t xml:space="preserve">validName@test.com</t>
@@ -587,7 +584,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -624,20 +621,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -731,11 +732,11 @@
   </sheetPr>
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -909,13 +910,13 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.09"/>
@@ -1015,13 +1016,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>18</v>
@@ -1053,13 +1054,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
@@ -1076,16 +1077,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>7</v>
@@ -1097,15 +1098,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>18</v>
@@ -1116,19 +1117,19 @@
       <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="9" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
@@ -1139,19 +1140,19 @@
       <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="9" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>18</v>
@@ -1162,19 +1163,19 @@
       <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -1185,45 +1186,45 @@
       <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="9" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="10" t="n">
         <v>48045</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="11" t="n">
         <v>201</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>7</v>
@@ -1231,22 +1232,22 @@
       <c r="F14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="9" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>7</v>
@@ -1254,22 +1255,22 @@
       <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="9" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>7</v>
@@ -1277,22 +1278,22 @@
       <c r="F16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="9" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>7</v>
@@ -1300,22 +1301,22 @@
       <c r="F17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="9" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>7</v>
@@ -1323,22 +1324,22 @@
       <c r="F18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="9" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>7</v>
@@ -1346,7 +1347,7 @@
       <c r="F19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="9" t="n">
         <v>400</v>
       </c>
     </row>
@@ -1368,11 +1369,11 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1393,140 +1394,140 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="13" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="13" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="11" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="13" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="11" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="13" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="11" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="12" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="11" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="10" t="n">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="10" t="n">
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="12" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1548,11 +1549,11 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1560,7 +1561,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1573,84 +1574,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="13" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="11" t="n">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="13" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1672,11 +1673,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -1701,102 +1702,102 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="18" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="B3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="18" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="C5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="17" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="E5" s="18" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="17" t="n">
+      <c r="E6" s="18" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="15" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="17" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="17" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="18" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1818,18 +1819,18 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1843,33 +1844,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>92</v>
+      <c r="D2" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>500</v>
@@ -1877,50 +1878,50 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
-        <v>94</v>
+      <c r="A4" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>92</v>
+      <c r="D4" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>95</v>
+      <c r="A5" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>92</v>
+      <c r="D5" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>500</v>
@@ -1944,11 +1945,11 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1966,59 +1967,59 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="13" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="13" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="13" t="n">
         <v>500</v>
       </c>
     </row>
@@ -2027,50 +2028,50 @@
         <v>123131</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="13" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="15" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="13" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="24" t="n">
         <v>500</v>
       </c>
     </row>
@@ -2092,24 +2093,24 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2122,160 +2123,160 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>500</v>
@@ -2299,11 +2300,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2311,20 +2312,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2338,25 +2339,25 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="26" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="25" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D2" s="25" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>200</v>
@@ -2364,25 +2365,25 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="26" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D3" s="26" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="25" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D3" s="25" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>409</v>
@@ -2390,25 +2391,25 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="25" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D4" s="25" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>500</v>
@@ -2416,77 +2417,77 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="26" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D5" s="26" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="25" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D5" s="25" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="26" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="26" t="n">
         <v>44103</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="26" t="n">
+      <c r="H6" s="27" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="28" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="26" t="n">
         <v>44103</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>200</v>
@@ -2494,77 +2495,77 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="26" t="n">
         <v>44103</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="26" t="n">
+      <c r="H8" s="27" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="26" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D9" s="29" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="30" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="31" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D10" s="31" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="25" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D9" s="28" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="29" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="30" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D10" s="30" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>200</v>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="124">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">invalidNumber@test.com</t>
   </si>
   <si>
-    <t xml:space="preserve">invalidNumbertest</t>
+    <t xml:space="preserve">invalidNumberte</t>
   </si>
   <si>
     <t xml:space="preserve">UserRegistration</t>
@@ -105,6 +105,9 @@
     <t xml:space="preserve">invalidUsername@test.com</t>
   </si>
   <si>
+    <t xml:space="preserve">userRegistration</t>
+  </si>
+  <si>
     <t xml:space="preserve">tester-2</t>
   </si>
   <si>
@@ -129,7 +132,7 @@
     <t xml:space="preserve">tester1</t>
   </si>
   <si>
-    <t xml:space="preserve">N arrar sig nificaco ntar hi storias la me jor mane radeenseñ aralosniñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosni</t>
+    <t xml:space="preserve">N arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosniñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosni</t>
   </si>
   <si>
     <t xml:space="preserve">validName@test.com</t>
@@ -138,7 +141,7 @@
     <t xml:space="preserve">tester4</t>
   </si>
   <si>
-    <t xml:space="preserve">N arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosneiñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosni</t>
+    <t xml:space="preserve">N arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosneiñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralos1</t>
   </si>
   <si>
     <t xml:space="preserve">invalidName@test.com</t>
@@ -162,7 +165,7 @@
     <t xml:space="preserve">name41@test.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrarsignificacontarhi Mejormaneradele </t>
+    <t xml:space="preserve">Narrarsignifica</t>
   </si>
   <si>
     <t xml:space="preserve">Pedro Rosales</t>
@@ -613,6 +616,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -621,24 +628,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -736,7 +739,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -911,10 +914,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -945,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -968,14 +971,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -991,7 +994,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -1014,15 +1017,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>18</v>
@@ -1037,11 +1040,11 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1052,15 +1055,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
@@ -1075,18 +1078,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>7</v>
@@ -1099,14 +1102,14 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>33</v>
+      <c r="A9" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>18</v>
@@ -1117,19 +1120,19 @@
       <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="6" t="n">
         <v>201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>36</v>
+      <c r="A10" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
@@ -1140,19 +1143,19 @@
       <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>18</v>
@@ -1163,19 +1166,19 @@
       <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="6" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>44</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -1186,45 +1189,45 @@
       <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="n">
         <v>48045</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="11" t="n">
-        <v>201</v>
+      <c r="G13" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>7</v>
@@ -1232,22 +1235,22 @@
       <c r="F14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>7</v>
@@ -1255,22 +1258,22 @@
       <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>7</v>
@@ -1278,22 +1281,22 @@
       <c r="F16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>7</v>
@@ -1301,22 +1304,22 @@
       <c r="F17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>7</v>
@@ -1324,22 +1327,22 @@
       <c r="F18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>7</v>
@@ -1347,7 +1350,7 @@
       <c r="F19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="6" t="n">
         <v>400</v>
       </c>
     </row>
@@ -1373,7 +1376,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1394,140 +1397,140 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="13" t="n">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="12" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="13" t="n">
+      <c r="A5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="13" t="n">
+      <c r="A6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="13" t="n">
+      <c r="A7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="12" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="13" t="n">
+      <c r="A8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="12" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="12" t="n">
+      <c r="A9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="12" t="n">
+      <c r="A10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="12" t="n">
+      <c r="A11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="11" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1553,7 +1556,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1561,7 +1564,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1574,84 +1577,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" s="12" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1674,10 +1677,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -1704,13 +1707,13 @@
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="18" t="n">
         <v>500</v>
@@ -1718,16 +1721,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="E3" s="18" t="n">
         <v>202</v>
@@ -1735,16 +1738,16 @@
     </row>
     <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="18" t="n">
         <v>500</v>
@@ -1752,16 +1755,16 @@
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" s="18" t="n">
         <v>500</v>
@@ -1769,16 +1772,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="18" t="n">
         <v>500</v>
@@ -1786,16 +1789,16 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="18" t="n">
         <v>500</v>
@@ -1823,14 +1826,14 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1862,15 +1865,15 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>500</v>
@@ -1878,16 +1881,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>202</v>
@@ -1895,16 +1898,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>500</v>
@@ -1912,16 +1915,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>500</v>
@@ -1949,7 +1952,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1986,40 +1989,40 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="12" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="12" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="12" t="n">
         <v>500</v>
       </c>
     </row>
@@ -2028,20 +2031,20 @@
         <v>123131</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="12" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2051,23 +2054,23 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="12" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2097,20 +2100,20 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2130,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>200</v>
@@ -2150,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>200</v>
@@ -2170,13 +2173,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>200</v>
@@ -2190,13 +2193,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>200</v>
@@ -2210,13 +2213,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>200</v>
@@ -2230,13 +2233,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>500</v>
@@ -2250,13 +2253,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>200</v>
@@ -2270,13 +2273,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>500</v>
@@ -2304,7 +2307,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2316,16 +2319,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2339,10 +2342,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="26" t="n">
         <v>43737</v>
@@ -2351,13 +2354,13 @@
         <v>44103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>200</v>
@@ -2365,10 +2368,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="26" t="n">
         <v>43737</v>
@@ -2377,24 +2380,24 @@
         <v>44103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>113</v>
+      <c r="A4" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="26" t="n">
         <v>43737</v>
@@ -2403,13 +2406,13 @@
         <v>44103</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>500</v>
@@ -2417,10 +2420,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>43737</v>
@@ -2429,24 +2432,24 @@
         <v>44103</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>116</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>43737</v>
@@ -2455,13 +2458,13 @@
         <v>44103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H6" s="27" t="n">
         <v>500</v>
@@ -2469,10 +2472,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>43737</v>
@@ -2481,13 +2484,13 @@
         <v>44103</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>200</v>
@@ -2495,10 +2498,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>43737</v>
@@ -2507,13 +2510,13 @@
         <v>44103</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="27" t="n">
         <v>200</v>
@@ -2521,10 +2524,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>43737</v>
@@ -2533,13 +2536,13 @@
         <v>44103</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H9" s="30" t="n">
         <v>200</v>
@@ -2547,10 +2550,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="31" t="n">
         <v>43737</v>
@@ -2559,13 +2562,13 @@
         <v>44103</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>200</v>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,9 @@
     <sheet name="EP_Name" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="EP_Mail" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="EP_Password" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="PC_Roles" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="ProjectCreation" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="EP_All" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="PC_Roles" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="ProjectCreation" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -306,6 +307,9 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
+    <t xml:space="preserve">Ivonne</t>
+  </si>
+  <si>
     <t xml:space="preserve">/api/mailupd</t>
   </si>
   <si>
@@ -331,6 +335,21 @@
   </si>
   <si>
     <t xml:space="preserve">Horser45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivone@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/allupd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne12*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivone@hotmail.com21*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne$#12</t>
   </si>
   <si>
     <t xml:space="preserve">Project id</t>
@@ -587,7 +606,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -686,6 +705,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -735,11 +758,11 @@
   </sheetPr>
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -906,6 +929,295 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B8 F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="27" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D2" s="27" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D4" s="27" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D6" s="27" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="29" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="30" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D8" s="27" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="28" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D9" s="30" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="31" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D10" s="32" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -913,11 +1225,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="1" sqref="B8 B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -1372,11 +1684,11 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B8 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1552,11 +1864,11 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1676,11 +1988,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -1822,11 +2134,11 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B8 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
@@ -1864,16 +2176,16 @@
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>500</v>
@@ -1881,54 +2193,44 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>500</v>
-      </c>
+      <c r="A5" s="23"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1948,11 +2250,11 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1989,7 +2291,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>82</v>
@@ -2002,7 +2304,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>82</v>
@@ -2015,7 +2317,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>82</v>
@@ -2041,7 +2343,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>82</v>
@@ -2054,7 +2356,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>82</v>
@@ -2067,7 +2369,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>82</v>
@@ -2094,26 +2396,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>103</v>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2125,173 +2430,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
+    <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="B6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="C7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="4" t="n">
+      <c r="C8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>500</v>
-      </c>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="22"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="ivone@hotmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="ivone@hotmail.com"/>
+    <hyperlink ref="B6" r:id="rId3" display="ivone@hotmail.com"/>
+    <hyperlink ref="B7" r:id="rId4" display="ivone@hotmail.com21*"/>
+    <hyperlink ref="B8" r:id="rId5" display="ivone@hotmail.com21*"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2301,277 +2587,195 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B8 E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>109</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="26" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D2" s="26" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="F2" s="4" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="26" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D3" s="26" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>409</v>
+      <c r="F3" s="4" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="26" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D4" s="26" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="4" t="n">
+      <c r="F4" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="26" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="F8" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="26" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D6" s="26" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="27" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="28" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D7" s="26" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D8" s="26" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="27" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="26" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D9" s="29" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="30" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="31" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D10" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,9 +15,8 @@
     <sheet name="EP_Name" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="EP_Mail" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="EP_Password" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="EP_All" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="PC_Roles" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="ProjectCreation" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="PC_Roles" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="ProjectCreation" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="124">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -46,10 +45,10 @@
     <t xml:space="preserve">Expected Code</t>
   </si>
   <si>
-    <t xml:space="preserve">adan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hexaware123</t>
+    <t xml:space="preserve">Ivonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne1-</t>
   </si>
   <si>
     <t xml:space="preserve">post</t>
@@ -58,16 +57,19 @@
     <t xml:space="preserve">/api/login</t>
   </si>
   <si>
-    <t xml:space="preserve">hexaware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adddan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaddan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hexawaree234</t>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivonne1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivonne@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne-1</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -97,7 +99,7 @@
     <t xml:space="preserve">invalidNumber@test.com</t>
   </si>
   <si>
-    <t xml:space="preserve">invalidNumberte</t>
+    <t xml:space="preserve">invalidNumbertest</t>
   </si>
   <si>
     <t xml:space="preserve">UserRegistration</t>
@@ -142,7 +144,7 @@
     <t xml:space="preserve">tester4</t>
   </si>
   <si>
-    <t xml:space="preserve">N arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosneiñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralos1</t>
+    <t xml:space="preserve">N arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosneiñoscómoseco nstruyen lostext osnarrativosesmed iantelalectura decuentosbienseanhis toriaspopular esleyendas defolcN arrar sig nifica co ntar hi storias la me jor mane radeenseñ aralosni</t>
   </si>
   <si>
     <t xml:space="preserve">invalidName@test.com</t>
@@ -166,7 +168,7 @@
     <t xml:space="preserve">name41@test.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrarsignifica</t>
+    <t xml:space="preserve">Narrarsignificacontarhi Mejormaneradele </t>
   </si>
   <si>
     <t xml:space="preserve">Pedro Rosales</t>
@@ -238,9 +240,6 @@
     <t xml:space="preserve">M@yterios123</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
     <t xml:space="preserve">/api/user</t>
   </si>
   <si>
@@ -307,9 +306,6 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivonne</t>
-  </si>
-  <si>
     <t xml:space="preserve">/api/mailupd</t>
   </si>
   <si>
@@ -335,21 +331,6 @@
   </si>
   <si>
     <t xml:space="preserve">Horser45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ivone@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/api/allupd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonne12*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ivone@hotmail.com21*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonne$#12</t>
   </si>
   <si>
     <t xml:space="preserve">Project id</t>
@@ -606,7 +587,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,124 +600,120 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -756,13 +733,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -820,7 +797,7 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>200</v>
       </c>
     </row>
@@ -837,16 +814,16 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -854,16 +831,16 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -871,20 +848,20 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <v>400</v>
       </c>
     </row>
@@ -892,19 +869,19 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -914,297 +891,25 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="3" t="n">
         <v>400</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B8 F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="27" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D2" s="27" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="27" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D3" s="27" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="27" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D4" s="27" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="27" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D5" s="27" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="27" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D6" s="27" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="28" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D7" s="27" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="30" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D8" s="27" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="28" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="27" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D9" s="30" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="31" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="32" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D10" s="32" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>200</v>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -1225,13 +930,13 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="1" sqref="B8 B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.09"/>
@@ -1239,10 +944,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1260,409 +965,409 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6" t="s">
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>48045</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="9" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="6" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="6" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>48045</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="6" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="6" t="n">
+      <c r="D19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>400</v>
       </c>
     </row>
@@ -1684,11 +1389,11 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B8 D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1709,140 +1414,140 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="11" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="10" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="10" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="10" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1864,11 +1569,11 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1889,84 +1594,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1988,11 +1693,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -2001,7 +1706,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2017,102 +1722,102 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="18" t="n">
+      <c r="E2" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="17" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="17" t="n">
         <v>500</v>
       </c>
     </row>
@@ -2134,11 +1839,11 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B8 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
@@ -2159,78 +1864,88 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="D3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="E5" s="6" t="n">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2250,11 +1965,11 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2272,111 +1987,111 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="12" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="12" t="n">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>123131</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="12" t="n">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="14" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>123131</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12" t="n">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="15" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="12" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="24" t="n">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="23" t="n">
         <v>500</v>
       </c>
     </row>
@@ -2396,29 +2111,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2430,154 +2142,173 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="0" t="n">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="0" t="n">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="0" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="22"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="ivone@hotmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="ivone@hotmail.com"/>
-    <hyperlink ref="B6" r:id="rId3" display="ivone@hotmail.com"/>
-    <hyperlink ref="B7" r:id="rId4" display="ivone@hotmail.com21*"/>
-    <hyperlink ref="B8" r:id="rId5" display="ivone@hotmail.com21*"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -2587,195 +2318,277 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B8 E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="C2" s="25" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D2" s="25" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="C3" s="25" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D3" s="25" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D4" s="25" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D5" s="25" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="26" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D7" s="25" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="6" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14" t="s">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="28" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="26" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="C9" s="25" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D9" s="28" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="29" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="14" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="C10" s="30" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D10" s="30" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="31" t="n">
         <v>200</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">name41@test.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrarsignifica</t>
+    <t xml:space="preserve">Narrarsignificacontarhi Mejormaneradele</t>
   </si>
   <si>
     <t xml:space="preserve">Pedro Rosales</t>
@@ -434,7 +434,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -486,14 +486,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -507,6 +502,18 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -606,7 +613,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -631,107 +638,115 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,10 +774,10 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -937,10 +952,10 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B8 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -948,19 +963,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -974,25 +989,25 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="28" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="27" t="n">
+      <c r="D2" s="28" t="n">
         <v>44103</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H2" s="4" t="n">
@@ -1000,25 +1015,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="28" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="28" t="n">
         <v>44103</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H3" s="4" t="n">
@@ -1026,25 +1041,25 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="28" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="28" t="n">
         <v>44103</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H4" s="4" t="n">
@@ -1052,25 +1067,25 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="28" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="28" t="n">
         <v>44103</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H5" s="4" t="n">
@@ -1078,51 +1093,51 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="28" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="28" t="n">
         <v>44103</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="28" t="n">
+      <c r="H6" s="30" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="29" t="n">
+      <c r="C7" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="28" t="n">
         <v>44103</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H7" s="4" t="n">
@@ -1130,77 +1145,77 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="28" t="n">
         <v>44103</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="28" t="n">
+      <c r="H8" s="30" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="28" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="30" t="n">
+      <c r="D9" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="31" t="n">
+      <c r="H9" s="33" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="32" t="n">
+      <c r="C10" s="34" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="34" t="n">
         <v>44103</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H10" s="3" t="n">
@@ -1225,11 +1240,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="1" sqref="B8 B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -1238,435 +1253,438 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="8" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="8" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="G7" s="8" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="115.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G9" s="7" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="115.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G10" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G11" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6" t="s">
+    <row r="12" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G12" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>480485</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G13" s="9" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G14" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G16" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>48045</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G17" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G18" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G19" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="test@test.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1685,10 +1703,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B8 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1709,140 +1727,140 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="14" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="14" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="14" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="14" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="13" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="13" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="13" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1865,10 +1883,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1889,84 +1907,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="14" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="14" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="17" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="14" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1989,10 +2007,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -2017,102 +2035,102 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="18" t="n">
+      <c r="E2" s="8" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="8" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="8" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="8" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="8" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="8" t="n">
         <v>500</v>
       </c>
     </row>
@@ -2135,10 +2153,10 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B8 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
@@ -2159,32 +2177,32 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E2" s="4" t="n">
@@ -2192,16 +2210,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="4" t="n">
@@ -2209,16 +2227,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E4" s="4" t="n">
@@ -2226,10 +2244,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="4"/>
     </row>
   </sheetData>
@@ -2251,10 +2269,10 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2272,111 +2290,111 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="12" t="n">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="14" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="12" t="n">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="14" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="12" t="n">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="14" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="22" t="n">
         <v>123131</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12" t="n">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="14" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="15" t="n">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="17" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="12" t="n">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="14" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="24" t="n">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="25" t="n">
         <v>500</v>
       </c>
     </row>
@@ -2398,11 +2416,11 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
@@ -2431,19 +2449,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -2451,16 +2469,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -2468,16 +2486,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -2488,10 +2506,10 @@
       <c r="C5" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -2499,19 +2517,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -2519,19 +2537,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -2539,10 +2557,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -2551,7 +2569,7 @@
       <c r="D8" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -2559,10 +2577,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2590,22 +2608,22 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B8 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2619,19 +2637,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F2" s="4" t="n">
@@ -2639,19 +2657,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F3" s="4" t="n">
@@ -2659,19 +2677,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F4" s="4" t="n">
@@ -2679,19 +2697,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="4" t="n">
@@ -2699,19 +2717,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F6" s="4" t="n">
@@ -2719,19 +2737,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F7" s="4" t="n">
@@ -2739,19 +2757,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F8" s="4" t="n">
@@ -2759,19 +2777,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="4" t="n">

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -777,7 +777,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -955,7 +955,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -1241,10 +1241,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -1517,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,7 +1706,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1886,7 +1886,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -2010,7 +2010,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -2156,7 +2156,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
@@ -2272,7 +2272,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2420,7 +2420,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
@@ -2611,7 +2611,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="130">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Expected Code</t>
   </si>
   <si>
-    <t xml:space="preserve">adan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hexaware123</t>
+    <t xml:space="preserve">Ivonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne1-</t>
   </si>
   <si>
     <t xml:space="preserve">post</t>
@@ -58,16 +58,22 @@
     <t xml:space="preserve">/api/login</t>
   </si>
   <si>
-    <t xml:space="preserve">hexaware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adddan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaddan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hexawaree234</t>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivonne1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivonne@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne-1</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -238,9 +244,6 @@
     <t xml:space="preserve">M@yterios123</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
     <t xml:space="preserve">/api/user</t>
   </si>
   <si>
@@ -305,9 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonne</t>
   </si>
   <si>
     <t xml:space="preserve">/api/mailupd</t>
@@ -434,7 +434,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -466,6 +466,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -532,6 +540,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -613,7 +629,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -626,6 +642,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,43 +654,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,23 +702,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,15 +734,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,7 +754,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -734,19 +762,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,13 +799,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -829,13 +857,13 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="6" t="n">
         <v>200</v>
       </c>
     </row>
@@ -843,97 +871,125 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
+      <c r="A4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="6" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E7" s="6" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>400</v>
-      </c>
-    </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="6" t="n">
         <v>400</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="ivonne@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -955,7 +1011,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -963,19 +1019,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -989,236 +1045,236 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="28" t="n">
+      <c r="C2" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D3" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="6" t="n">
         <v>409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="28" t="n">
+      <c r="D4" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="6" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D5" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="6" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="28" t="n">
+      <c r="C6" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="28" t="n">
+      <c r="D6" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="30" t="n">
+      <c r="H6" s="33" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="31" t="n">
+      <c r="C7" s="34" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="32" t="n">
+      <c r="C8" s="35" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="30" t="n">
+      <c r="H8" s="33" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="35" t="n">
         <v>44103</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="33" t="n">
+      <c r="H9" s="36" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="34" t="n">
+      <c r="C10" s="37" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="34" t="n">
+      <c r="D10" s="37" t="n">
         <v>44103</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="5" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1240,11 +1296,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -1253,431 +1309,431 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="D2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="10" t="n">
         <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="10" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="n">
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="115.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8" t="n">
+    <row r="10" customFormat="false" ht="115.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8" t="n">
+    <row r="12" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>480485</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="115.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="115.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>480485</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>400</v>
-      </c>
-    </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="7" t="n">
+      <c r="C19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9" t="n">
         <v>400</v>
       </c>
     </row>
@@ -1706,7 +1762,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1727,140 +1783,140 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="14" t="n">
+      <c r="A2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="16" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="14" t="n">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="16" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="16" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="14" t="n">
+      <c r="A5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="16" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="14" t="n">
+      <c r="A6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="14" t="n">
+      <c r="A7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="16" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="14" t="n">
+      <c r="A8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="16" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="13" t="n">
+      <c r="A9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="15" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="13" t="n">
+      <c r="A10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="15" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="13" t="n">
+      <c r="A11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="15" t="n">
         <v>404</v>
       </c>
     </row>
@@ -1886,7 +1942,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1894,7 +1950,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1907,84 +1963,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="n">
+      <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="14" t="n">
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="16" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="n">
+      <c r="A3" s="17" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="14" t="n">
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="16" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="16" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="14" t="n">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="17" t="n">
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="19" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="14" t="n">
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="16" t="n">
         <v>200</v>
       </c>
     </row>
@@ -2006,11 +2062,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -2019,7 +2075,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2035,103 +2091,103 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="D2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="10" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="10" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="D4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="10" t="n">
         <v>202</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="D6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>500</v>
+      <c r="D7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2156,14 +2212,14 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2177,78 +2233,78 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="6" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="6" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2272,7 +2328,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2290,111 +2346,111 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="14" t="n">
+      <c r="B2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="16" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="14" t="n">
+      <c r="B3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="16" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="14" t="n">
+      <c r="B4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="16" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="n">
+      <c r="A5" s="24" t="n">
         <v>123131</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="14" t="n">
+      <c r="B5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="16" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="17" t="n">
+      <c r="B6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="19" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="14" t="n">
+      <c r="B7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="16" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25" t="n">
+      <c r="B8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="n">
         <v>500</v>
       </c>
     </row>
@@ -2417,10 +2473,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
@@ -2430,10 +2486,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2449,19 +2505,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -2469,16 +2525,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -2486,16 +2545,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>92</v>
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -2503,13 +2565,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="C5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -2517,19 +2585,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -2537,50 +2605,51 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="23"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="23"/>
+      <c r="B10" s="29"/>
+      <c r="E10" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2611,19 +2680,19 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2637,162 +2706,162 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="6" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="6" t="n">
         <v>500</v>
       </c>
     </row>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="127">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -319,22 +319,13 @@
     <t xml:space="preserve">almendrahotmail@.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Hugo23siem@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hugoxca###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siempreser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERsiem(#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alma34@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horser45</t>
+    <t xml:space="preserve">/api/passupd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivone#875h5y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M@pre123</t>
   </si>
   <si>
     <t xml:space="preserve">ivone@hotmail.com</t>
@@ -434,7 +425,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -532,6 +523,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -613,7 +616,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,10 +717,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,7 +737,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -738,11 +749,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,7 +788,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -955,7 +966,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -963,20 +974,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -990,25 +1001,25 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="30" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D2" s="30" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="28" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D2" s="28" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>200</v>
@@ -1016,51 +1027,51 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="30" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D3" s="30" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="28" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D3" s="28" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>120</v>
+      <c r="A4" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="C4" s="30" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="28" t="n">
+      <c r="D4" s="30" t="n">
         <v>44103</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>500</v>
@@ -1068,25 +1079,25 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="C5" s="30" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D5" s="30" t="n">
         <v>44103</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>500</v>
@@ -1094,51 +1105,51 @@
     </row>
     <row r="6" customFormat="false" ht="496.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="28" t="n">
+        <v>119</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="30" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="28" t="n">
+      <c r="D6" s="30" t="n">
         <v>44103</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="30" t="n">
+        <v>116</v>
+      </c>
+      <c r="H6" s="32" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="31" t="n">
+        <v>122</v>
+      </c>
+      <c r="C7" s="33" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="30" t="n">
         <v>44103</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>200</v>
@@ -1146,77 +1157,77 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="32" t="n">
+        <v>124</v>
+      </c>
+      <c r="C8" s="34" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="30" t="n">
         <v>44103</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="30" t="n">
+        <v>116</v>
+      </c>
+      <c r="H8" s="32" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="C9" s="30" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="34" t="n">
         <v>44103</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="33" t="n">
+        <v>116</v>
+      </c>
+      <c r="H9" s="35" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>129</v>
+      <c r="A10" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="34" t="n">
+        <v>114</v>
+      </c>
+      <c r="C10" s="36" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="34" t="n">
+      <c r="D10" s="36" t="n">
         <v>44103</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>200</v>
@@ -1240,11 +1251,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -1706,7 +1717,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1886,7 +1897,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -2010,7 +2021,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -2156,7 +2167,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
@@ -2266,13 +2277,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2308,97 +2319,145 @@
       <c r="U1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
       <c r="E2" s="14" t="n">
-        <v>202</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="14" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="B5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25"/>
+      <c r="B8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="26" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="14" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="n">
-        <v>123131</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="14" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="17" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="14" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25" t="n">
-        <v>500</v>
+      <c r="B9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="26" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="Dani@98"/>
+    <hyperlink ref="A7" r:id="rId2" display="M@yterios123"/>
+    <hyperlink ref="A9" r:id="rId3" display="M@pre123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2416,11 +2475,11 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
@@ -2449,11 +2508,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>102</v>
+      <c r="B2" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>92</v>
@@ -2462,15 +2521,15 @@
         <v>83</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26" t="s">
-        <v>102</v>
+      <c r="B3" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>92</v>
@@ -2479,14 +2538,14 @@
         <v>83</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -2496,7 +2555,7 @@
         <v>83</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>500</v>
@@ -2510,18 +2569,18 @@
         <v>83</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>102</v>
+      <c r="A6" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>92</v>
@@ -2530,18 +2589,18 @@
         <v>83</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>105</v>
+      <c r="B7" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>92</v>
@@ -2550,18 +2609,18 @@
         <v>83</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>105</v>
+      <c r="A8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>92</v>
@@ -2570,7 +2629,7 @@
         <v>83</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>500</v>
@@ -2594,8 +2653,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2611,20 +2670,20 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>109</v>
+      <c r="A1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2644,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>200</v>
@@ -2664,13 +2723,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>200</v>
@@ -2684,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>200</v>
@@ -2704,13 +2763,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>200</v>
@@ -2724,13 +2783,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>200</v>
@@ -2744,13 +2803,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>500</v>
@@ -2764,13 +2823,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>200</v>
@@ -2784,13 +2843,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>500</v>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -425,7 +425,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -527,12 +527,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -616,7 +611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -725,10 +720,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -737,7 +728,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -749,11 +740,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -788,7 +779,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -966,7 +957,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -974,19 +965,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1006,10 +997,10 @@
       <c r="B2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="30" t="n">
+      <c r="C2" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="30" t="n">
+      <c r="D2" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E2" s="22" t="s">
@@ -1032,10 +1023,10 @@
       <c r="B3" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="30" t="n">
+      <c r="C3" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="30" t="n">
+      <c r="D3" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E3" s="22" t="s">
@@ -1052,16 +1043,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="30" t="n">
+      <c r="C4" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="30" t="n">
+      <c r="D4" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -1084,10 +1075,10 @@
       <c r="B5" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="30" t="n">
+      <c r="C5" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="30" t="n">
+      <c r="D5" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E5" s="22" t="s">
@@ -1107,13 +1098,13 @@
       <c r="A6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="30" t="n">
+      <c r="D6" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -1125,7 +1116,7 @@
       <c r="G6" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="31" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1136,10 +1127,10 @@
       <c r="B7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="30" t="n">
+      <c r="D7" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E7" s="22" t="s">
@@ -1162,10 +1153,10 @@
       <c r="B8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="34" t="n">
+      <c r="C8" s="33" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="30" t="n">
+      <c r="D8" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -1177,7 +1168,7 @@
       <c r="G8" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="32" t="n">
+      <c r="H8" s="31" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1188,10 +1179,10 @@
       <c r="B9" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="34" t="n">
+      <c r="D9" s="33" t="n">
         <v>44103</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -1203,21 +1194,21 @@
       <c r="G9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="35" t="n">
+      <c r="H9" s="34" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="36" t="n">
+      <c r="C10" s="35" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="36" t="n">
+      <c r="D10" s="35" t="n">
         <v>44103</v>
       </c>
       <c r="E10" s="22" t="s">
@@ -1255,7 +1246,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -1717,7 +1708,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1897,7 +1888,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -2017,11 +2008,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -2045,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>82</v>
@@ -2057,10 +2048,10 @@
         <v>84</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>85</v>
       </c>
@@ -2074,7 +2065,7 @@
         <v>84</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2108,10 +2099,10 @@
         <v>84</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>89</v>
       </c>
@@ -2125,10 +2116,10 @@
         <v>84</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>90</v>
       </c>
@@ -2142,7 +2133,7 @@
         <v>84</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2163,11 +2154,11 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
@@ -2205,7 +2196,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
         <v>92</v>
@@ -2217,7 +2208,7 @@
         <v>93</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,7 +2225,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,7 +2242,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,11 +2270,11 @@
   </sheetPr>
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2475,11 +2466,11 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
@@ -2508,10 +2499,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -2528,7 +2519,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -2541,11 +2532,11 @@
         <v>100</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -2558,7 +2549,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,14 +2563,14 @@
         <v>100</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2596,10 +2587,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -2612,14 +2603,14 @@
         <v>100</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -2632,7 +2623,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,19 +2661,19 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="1" t="s">

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="EP_All" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="PC_Roles" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="ProjectCreation" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="UserDeletion" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="135">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -422,6 +423,21 @@
   </si>
   <si>
     <t xml:space="preserve">HexaBoard6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AndresCarne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elmordid4s-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushashos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectF</t>
   </si>
 </sst>
 </file>
@@ -434,7 +450,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -531,6 +547,21 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -606,7 +637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -737,6 +768,34 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -759,10 +818,10 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -936,11 +995,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B8 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -1214,6 +1273,100 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="38" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="38" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="39"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="39"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1226,10 +1379,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="1" sqref="B8 B32"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -1685,10 +1838,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="B8 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1865,10 +2018,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -1989,10 +2142,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -2135,10 +2288,10 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B8 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
@@ -2251,10 +2404,10 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B8 C2"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2398,11 +2551,11 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
@@ -2590,10 +2743,10 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B8 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>

--- a/hexaboards/DataFile.xlsx
+++ b/hexaboards/DataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="EP_All" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="PC_Roles" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="ProjectCreation" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="UserDeletion" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="132">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -413,6 +414,21 @@
   </si>
   <si>
     <t xml:space="preserve">HexaBoard6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AndresCarne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elmordid4s-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushashos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectF</t>
   </si>
 </sst>
 </file>
@@ -425,7 +441,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -536,6 +552,14 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -611,7 +635,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -754,6 +778,34 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -779,7 +831,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -957,7 +1009,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -1231,6 +1283,100 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="41" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="41" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="42"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="42"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1246,7 +1392,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -1708,7 +1854,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1888,7 +2034,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
@@ -2012,7 +2158,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
@@ -2158,7 +2304,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
   </cols>
@@ -2274,7 +2420,7 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2466,11 +2612,11 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
@@ -2657,11 +2803,11 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
